--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H2">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I2">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J2">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>106.9561047824846</v>
+        <v>116.649658328358</v>
       </c>
       <c r="R2">
-        <v>106.9561047824846</v>
+        <v>466.5986333134319</v>
       </c>
       <c r="S2">
-        <v>0.04561319496015125</v>
+        <v>0.04225621225933571</v>
       </c>
       <c r="T2">
-        <v>0.04561319496015125</v>
+        <v>0.02649792963216771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H3">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I3">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J3">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>54.57845402825033</v>
+        <v>65.43551074135867</v>
       </c>
       <c r="R3">
-        <v>54.57845402825033</v>
+        <v>392.613064448152</v>
       </c>
       <c r="S3">
-        <v>0.02327588190760216</v>
+        <v>0.02370394282168847</v>
       </c>
       <c r="T3">
-        <v>0.02327588190760216</v>
+        <v>0.02229632195992413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H4">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I4">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J4">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>39.49459861279772</v>
+        <v>48.94490442138267</v>
       </c>
       <c r="R4">
-        <v>39.49459861279772</v>
+        <v>293.669426528296</v>
       </c>
       <c r="S4">
-        <v>0.01684312298079759</v>
+        <v>0.01773023856118789</v>
       </c>
       <c r="T4">
-        <v>0.01684312298079759</v>
+        <v>0.01667735660519738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H5">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I5">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J5">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>74.46847669977306</v>
+        <v>88.29346614805067</v>
       </c>
       <c r="R5">
-        <v>74.46847669977306</v>
+        <v>529.7607968883041</v>
       </c>
       <c r="S5">
-        <v>0.03175831013105938</v>
+        <v>0.03198421238545106</v>
       </c>
       <c r="T5">
-        <v>0.03175831013105938</v>
+        <v>0.03008488091390918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H6">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I6">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J6">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>78.79750574968932</v>
+        <v>86.44189519983466</v>
       </c>
       <c r="R6">
-        <v>78.79750574968932</v>
+        <v>518.6513711990081</v>
       </c>
       <c r="S6">
-        <v>0.03360449597004036</v>
+        <v>0.03131348281691005</v>
       </c>
       <c r="T6">
-        <v>0.03360449597004036</v>
+        <v>0.02945398155169219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H7">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I7">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J7">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N7">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O7">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P7">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q7">
-        <v>55.40141353206045</v>
+        <v>61.907867061996</v>
       </c>
       <c r="R7">
-        <v>55.40141353206045</v>
+        <v>247.631468247984</v>
       </c>
       <c r="S7">
-        <v>0.02362684656144722</v>
+        <v>0.02242605772346684</v>
       </c>
       <c r="T7">
-        <v>0.02362684656144722</v>
+        <v>0.01406288135425741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H8">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J8">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N8">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O8">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P8">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q8">
-        <v>162.2190660229041</v>
+        <v>175.6067541587675</v>
       </c>
       <c r="R8">
-        <v>162.2190660229041</v>
+        <v>1053.640524952605</v>
       </c>
       <c r="S8">
-        <v>0.06918099625827161</v>
+        <v>0.0636133563033499</v>
       </c>
       <c r="T8">
-        <v>0.06918099625827161</v>
+        <v>0.05983577853525331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H9">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J9">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N9">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P9">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q9">
-        <v>82.77849923052429</v>
+        <v>98.50794089482278</v>
       </c>
       <c r="R9">
-        <v>82.77849923052429</v>
+        <v>886.5714680534051</v>
       </c>
       <c r="S9">
-        <v>0.03530225630027776</v>
+        <v>0.0356843947880625</v>
       </c>
       <c r="T9">
-        <v>0.03530225630027776</v>
+        <v>0.05034800082362454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H10">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I10">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J10">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N10">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O10">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P10">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q10">
-        <v>59.90099314991809</v>
+        <v>73.68264872114611</v>
       </c>
       <c r="R10">
-        <v>59.90099314991809</v>
+        <v>663.143838490315</v>
       </c>
       <c r="S10">
-        <v>0.02554576650309485</v>
+        <v>0.02669145961342182</v>
       </c>
       <c r="T10">
-        <v>0.02554576650309485</v>
+        <v>0.03765964474336175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H11">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I11">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J11">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N11">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O11">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P11">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q11">
-        <v>112.9454626545438</v>
+        <v>132.9187691235344</v>
       </c>
       <c r="R11">
-        <v>112.9454626545438</v>
+        <v>1196.26892211181</v>
       </c>
       <c r="S11">
-        <v>0.04816745540989315</v>
+        <v>0.04814968000612036</v>
       </c>
       <c r="T11">
-        <v>0.04816745540989315</v>
+        <v>0.06793558201010565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H12">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I12">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J12">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N12">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O12">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P12">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q12">
-        <v>119.5112500931532</v>
+        <v>130.1313767816245</v>
       </c>
       <c r="R12">
-        <v>119.5112500931532</v>
+        <v>1171.18239103462</v>
       </c>
       <c r="S12">
-        <v>0.05096754375560533</v>
+        <v>0.04713995015231965</v>
       </c>
       <c r="T12">
-        <v>0.05096754375560533</v>
+        <v>0.06651092902628082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H13">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I13">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J13">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N13">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O13">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P13">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q13">
-        <v>84.02667222966491</v>
+        <v>93.197354775335</v>
       </c>
       <c r="R13">
-        <v>84.02667222966491</v>
+        <v>559.18412865201</v>
       </c>
       <c r="S13">
-        <v>0.03583456026244599</v>
+        <v>0.03376064072394961</v>
       </c>
       <c r="T13">
-        <v>0.03583456026244599</v>
+        <v>0.03175581888704911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H14">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I14">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J14">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N14">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O14">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P14">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q14">
-        <v>42.21079745040705</v>
+        <v>35.59359475080299</v>
       </c>
       <c r="R14">
-        <v>42.21079745040705</v>
+        <v>213.561568504818</v>
       </c>
       <c r="S14">
-        <v>0.01800149077459836</v>
+        <v>0.01289374110834466</v>
       </c>
       <c r="T14">
-        <v>0.01800149077459836</v>
+        <v>0.01212806684449654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H15">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I15">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J15">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N15">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P15">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q15">
-        <v>21.53967810278842</v>
+        <v>19.96649698778866</v>
       </c>
       <c r="R15">
-        <v>21.53967810278842</v>
+        <v>179.698472890098</v>
       </c>
       <c r="S15">
-        <v>0.009185950990637464</v>
+        <v>0.007232841886398189</v>
       </c>
       <c r="T15">
-        <v>0.009185950990637464</v>
+        <v>0.0102049966495535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H16">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I16">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J16">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N16">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O16">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P16">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q16">
-        <v>15.58675407841648</v>
+        <v>14.93467806127267</v>
       </c>
       <c r="R16">
-        <v>15.58675407841648</v>
+        <v>134.412102551454</v>
       </c>
       <c r="S16">
-        <v>0.006647228356161791</v>
+        <v>0.005410070935703404</v>
       </c>
       <c r="T16">
-        <v>0.006647228356161791</v>
+        <v>0.007633203744786043</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H17">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I17">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J17">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N17">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O17">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P17">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q17">
-        <v>29.38938167958828</v>
+        <v>26.94120067091067</v>
       </c>
       <c r="R17">
-        <v>29.38938167958828</v>
+        <v>242.470806038196</v>
       </c>
       <c r="S17">
-        <v>0.0125335865496935</v>
+        <v>0.009759420733721954</v>
       </c>
       <c r="T17">
-        <v>0.0125335865496935</v>
+        <v>0.01376980963409554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H18">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I18">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J18">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N18">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O18">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P18">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q18">
-        <v>31.09785609303633</v>
+        <v>26.37622631155466</v>
       </c>
       <c r="R18">
-        <v>31.09785609303633</v>
+        <v>237.386036803992</v>
       </c>
       <c r="S18">
-        <v>0.01326219364195363</v>
+        <v>0.009554759384583432</v>
       </c>
       <c r="T18">
-        <v>0.01326219364195363</v>
+        <v>0.01348104784238827</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H19">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I19">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J19">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N19">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O19">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P19">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q19">
-        <v>21.86446346212684</v>
+        <v>18.890098468086</v>
       </c>
       <c r="R19">
-        <v>21.86446346212684</v>
+        <v>113.340590808516</v>
       </c>
       <c r="S19">
-        <v>0.009324461063959918</v>
+        <v>0.006842917689653815</v>
       </c>
       <c r="T19">
-        <v>0.009324461063959918</v>
+        <v>0.006436561929865208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H20">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I20">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J20">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N20">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O20">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P20">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q20">
-        <v>38.72747561293322</v>
+        <v>47.39760694688999</v>
       </c>
       <c r="R20">
-        <v>38.72747561293322</v>
+        <v>284.38564168134</v>
       </c>
       <c r="S20">
-        <v>0.01651597072499699</v>
+        <v>0.01716973172861364</v>
       </c>
       <c r="T20">
-        <v>0.01651597072499699</v>
+        <v>0.01615013457746037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H21">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I21">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J21">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N21">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P21">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q21">
-        <v>19.76217955645673</v>
+        <v>26.58804717419333</v>
       </c>
       <c r="R21">
-        <v>19.76217955645673</v>
+        <v>239.29242456774</v>
       </c>
       <c r="S21">
-        <v>0.008427907418462704</v>
+        <v>0.009631491262420739</v>
       </c>
       <c r="T21">
-        <v>0.008427907418462704</v>
+        <v>0.01358931075875538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H22">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I22">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J22">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N22">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O22">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P22">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q22">
-        <v>14.30050306834088</v>
+        <v>19.88751081711333</v>
       </c>
       <c r="R22">
-        <v>14.30050306834088</v>
+        <v>178.98759735402</v>
       </c>
       <c r="S22">
-        <v>0.006098685398192387</v>
+        <v>0.007204229231706875</v>
       </c>
       <c r="T22">
-        <v>0.006098685398192387</v>
+        <v>0.01016462634285444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H23">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I23">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J23">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N23">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O23">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P23">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q23">
-        <v>26.96410944646737</v>
+        <v>35.87579307505334</v>
       </c>
       <c r="R23">
-        <v>26.96410944646737</v>
+        <v>322.88213767548</v>
       </c>
       <c r="S23">
-        <v>0.01149928920476157</v>
+        <v>0.01299596714534843</v>
       </c>
       <c r="T23">
-        <v>0.01149928920476157</v>
+        <v>0.01833633352685276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H24">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I24">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J24">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N24">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O24">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P24">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q24">
-        <v>28.53159703681357</v>
+        <v>35.12345454877333</v>
       </c>
       <c r="R24">
-        <v>28.53159703681357</v>
+        <v>316.11109093896</v>
       </c>
       <c r="S24">
-        <v>0.01216777014095014</v>
+        <v>0.01272343332987959</v>
       </c>
       <c r="T24">
-        <v>0.01216777014095014</v>
+        <v>0.01795180878299243</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H25">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I25">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J25">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N25">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O25">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P25">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q25">
-        <v>20.06016295982631</v>
+        <v>25.15467933618</v>
       </c>
       <c r="R25">
-        <v>20.06016295982631</v>
+        <v>150.92807601708</v>
       </c>
       <c r="S25">
-        <v>0.008554987355605403</v>
+        <v>0.009112255317140031</v>
       </c>
       <c r="T25">
-        <v>0.008554987355605403</v>
+        <v>0.008571138559534909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H26">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I26">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J26">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N26">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O26">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P26">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q26">
-        <v>262.0372587784454</v>
+        <v>41.83448189086199</v>
       </c>
       <c r="R26">
-        <v>262.0372587784454</v>
+        <v>251.006891345172</v>
       </c>
       <c r="S26">
-        <v>0.1117501109057048</v>
+        <v>0.01515449570853864</v>
       </c>
       <c r="T26">
-        <v>0.1117501109057048</v>
+        <v>0.01425457013626891</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H27">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I27">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J27">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N27">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O27">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P27">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q27">
-        <v>133.7145599216903</v>
+        <v>23.46736997225467</v>
       </c>
       <c r="R27">
-        <v>133.7145599216903</v>
+        <v>211.206329750292</v>
       </c>
       <c r="S27">
-        <v>0.05702477949363108</v>
+        <v>0.008501029329417953</v>
       </c>
       <c r="T27">
-        <v>0.05702477949363108</v>
+        <v>0.01199431387925272</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H28">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I28">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J28">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N28">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O28">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P28">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q28">
-        <v>96.7598472111458</v>
+        <v>17.55328517039067</v>
       </c>
       <c r="R28">
-        <v>96.7598472111458</v>
+        <v>157.979566533516</v>
       </c>
       <c r="S28">
-        <v>0.04126483274734226</v>
+        <v>0.006358658521920068</v>
       </c>
       <c r="T28">
-        <v>0.04126483274734226</v>
+        <v>0.008971589581389713</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H29">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I29">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J29">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N29">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O29">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P29">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q29">
-        <v>182.444148835632</v>
+        <v>31.66499982584267</v>
       </c>
       <c r="R29">
-        <v>182.444148835632</v>
+        <v>284.984998432584</v>
       </c>
       <c r="S29">
-        <v>0.07780631640524499</v>
+        <v>0.01147061185611165</v>
       </c>
       <c r="T29">
-        <v>0.07780631640524499</v>
+        <v>0.0161841717817836</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H30">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I30">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J30">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N30">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O30">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P30">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q30">
-        <v>193.0500596222979</v>
+        <v>31.00096435061867</v>
       </c>
       <c r="R30">
-        <v>193.0500596222979</v>
+        <v>279.008679155568</v>
       </c>
       <c r="S30">
-        <v>0.08232938198832691</v>
+        <v>0.01123006572515078</v>
       </c>
       <c r="T30">
-        <v>0.08232938198832691</v>
+        <v>0.01584477925819822</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.317076</v>
+      </c>
+      <c r="H31">
+        <v>3.951228</v>
+      </c>
+      <c r="I31">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J31">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.857219</v>
+      </c>
+      <c r="N31">
+        <v>33.714438</v>
+      </c>
+      <c r="O31">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P31">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q31">
+        <v>22.202238571644</v>
+      </c>
+      <c r="R31">
+        <v>133.213431429864</v>
+      </c>
+      <c r="S31">
+        <v>0.008042736851186503</v>
+      </c>
+      <c r="T31">
+        <v>0.007565131742932007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.5465465</v>
+      </c>
+      <c r="H32">
+        <v>17.093093</v>
+      </c>
+      <c r="I32">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J32">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>31.7631495</v>
+      </c>
+      <c r="N32">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P32">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q32">
+        <v>271.4652341882017</v>
+      </c>
+      <c r="R32">
+        <v>1085.860936752807</v>
+      </c>
+      <c r="S32">
+        <v>0.09833798676543798</v>
+      </c>
+      <c r="T32">
+        <v>0.06166556144425661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.5465465</v>
+      </c>
+      <c r="H33">
+        <v>17.093093</v>
+      </c>
+      <c r="I33">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J33">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N33">
+        <v>53.453339</v>
+      </c>
+      <c r="O33">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P33">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q33">
+        <v>152.2804824479212</v>
+      </c>
+      <c r="R33">
+        <v>913.682894687527</v>
+      </c>
+      <c r="S33">
+        <v>0.05516343966615014</v>
+      </c>
+      <c r="T33">
+        <v>0.05188764672887962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.5465465</v>
+      </c>
+      <c r="H34">
+        <v>17.093093</v>
+      </c>
+      <c r="I34">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J34">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N34">
+        <v>39.982397</v>
+      </c>
+      <c r="O34">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P34">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q34">
+        <v>113.9038050473202</v>
+      </c>
+      <c r="R34">
+        <v>683.4228302839209</v>
+      </c>
+      <c r="S34">
+        <v>0.04126152988529982</v>
+      </c>
+      <c r="T34">
+        <v>0.03881127970153214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.5465465</v>
+      </c>
+      <c r="H35">
+        <v>17.093093</v>
+      </c>
+      <c r="I35">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J35">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N35">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O35">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P35">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q35">
+        <v>205.4751536236757</v>
+      </c>
+      <c r="R35">
+        <v>1232.850921742054</v>
+      </c>
+      <c r="S35">
+        <v>0.07443315162656486</v>
+      </c>
+      <c r="T35">
+        <v>0.07001305755932151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="H31">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="I31">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="J31">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="N31">
-        <v>16.3971553699372</v>
-      </c>
-      <c r="O31">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="P31">
-        <v>0.135225481082548</v>
-      </c>
-      <c r="Q31">
-        <v>135.7307707111785</v>
-      </c>
-      <c r="R31">
-        <v>135.7307707111785</v>
-      </c>
-      <c r="S31">
-        <v>0.05788462583908947</v>
-      </c>
-      <c r="T31">
-        <v>0.05788462583908947</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.5465465</v>
+      </c>
+      <c r="H36">
+        <v>17.093093</v>
+      </c>
+      <c r="I36">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J36">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N36">
+        <v>70.613156</v>
+      </c>
+      <c r="O36">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P36">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q36">
+        <v>201.1662070885847</v>
+      </c>
+      <c r="R36">
+        <v>1206.997242531508</v>
+      </c>
+      <c r="S36">
+        <v>0.07287224041593449</v>
+      </c>
+      <c r="T36">
+        <v>0.06854483857293305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.5465465</v>
+      </c>
+      <c r="H37">
+        <v>17.093093</v>
+      </c>
+      <c r="I37">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J37">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.857219</v>
+      </c>
+      <c r="N37">
+        <v>33.714438</v>
+      </c>
+      <c r="O37">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P37">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q37">
+        <v>144.0710060441835</v>
+      </c>
+      <c r="R37">
+        <v>576.284024176734</v>
+      </c>
+      <c r="S37">
+        <v>0.05218956573950861</v>
+      </c>
+      <c r="T37">
+        <v>0.03272691437679346</v>
       </c>
     </row>
   </sheetData>
